--- a/biology/Biologie cellulaire et moléculaire/Structure_et_fonctionnement_d'un_opéron_poison-antidote/Structure_et_fonctionnement_d'un_opéron_poison-antidote.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Structure_et_fonctionnement_d'un_opéron_poison-antidote/Structure_et_fonctionnement_d'un_opéron_poison-antidote.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Structure_et_fonctionnement_d%27un_op%C3%A9ron_poison-antidote</t>
+          <t>Structure_et_fonctionnement_d'un_opéron_poison-antidote</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">A. L’opéron d’un système poison-antidote code deux protéines, un poison et un antidote qui neutralise ce poison. Selon le système poison-antidote, la transcription de l’opéron est auto-réprimée soit par l’antidote, soit par le complexe poison-antidote.
 B. Lorsqu’une bactérie héberge un plasmide comportant un opéron poison-antidote, l’antidote et le poison sont exprimés. L’expression de l’antidote est plus élevée que celle du poison. L’antidote neutralise l’action du poison en formant un complexe fort avec celui-ci mais l’antidote est rapidement dégradé par une protéase ATP-dépendante spécifique produite par l’hôte. L’antidote doit donc pouvoir être exprimé en permanence.
